--- a/PM2/econ/week5/class.xlsx
+++ b/PM2/econ/week5/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E753E-418C-49F0-99D5-D07ED07CCE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91939846-37C6-4A47-A0FA-1445A0D7A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F0DDD63A-CC88-4F19-876B-80C6960900AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F0DDD63A-CC88-4F19-876B-80C6960900AA}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -473,9 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3863,22 +3861,22 @@
       <c r="B22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22">
         <v>-10000</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22">
         <v>3110</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22">
         <v>3110</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22">
         <v>3110</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22">
         <v>3110</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>5110</v>
       </c>
       <c r="J22" s="1">
@@ -3896,27 +3894,27 @@
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="1">
         <f>$A$20</f>
         <v>0.1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="1">
         <f t="shared" ref="D23:H23" si="2">$A$20</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="1">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="1">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
@@ -3928,65 +3926,65 @@
       <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24">
         <f>1/(1+C23)^(C21)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24">
         <f t="shared" ref="D24:H24" si="3">1/(1+D23)^(D21)</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24">
         <f t="shared" si="3"/>
         <v>0.82644628099173545</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24">
         <f t="shared" si="3"/>
         <v>0.75131480090157754</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24">
         <f t="shared" si="3"/>
         <v>0.68301345536507052</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <f t="shared" si="3"/>
         <v>0.62092132305915493</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <f>C22*C24</f>
         <v>-10000</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <f t="shared" ref="D25:H25" si="4">D22*D24</f>
         <v>2827.272727272727</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <f t="shared" si="4"/>
         <v>2570.2479338842973</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="14">
         <f t="shared" si="4"/>
         <v>2336.5890308039061</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="14">
         <f t="shared" si="4"/>
         <v>2124.1718461853693</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="15">
         <f t="shared" si="4"/>
         <v>3172.9079608322818</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <f>SUM(C25:H25)</f>
         <v>3031.1894989785819</v>
       </c>
@@ -4013,29 +4011,29 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29">
         <v>-10000</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29">
         <f>C29+D22</f>
         <v>-6890</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29">
         <f>D29+E22</f>
         <v>-3780</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <f t="shared" ref="F29:H29" si="5">E29+F22</f>
         <v>-670</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <f t="shared" si="5"/>
         <v>2440</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <f t="shared" si="5"/>
         <v>7550</v>
       </c>
@@ -4044,30 +4042,30 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <f>C25</f>
         <v>-10000</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <f>C30+D25</f>
         <v>-7172.727272727273</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <f>D30+E25</f>
         <v>-4602.4793388429753</v>
       </c>
-      <c r="F30" s="16">
-        <f t="shared" ref="E30:H30" si="6">E30+F25</f>
+      <c r="F30" s="14">
+        <f t="shared" ref="F30:H30" si="6">E30+F25</f>
         <v>-2265.8903080390692</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="20">
         <f t="shared" si="6"/>
         <v>-141.71846185369986</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="21">
         <f t="shared" si="6"/>
         <v>3031.1894989785819</v>
       </c>
@@ -5083,7 +5081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B5E71C-0E8C-4897-95AF-EEC7C5BAE5E2}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -6065,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953CEC28-717D-46B4-9A95-2D31692185A2}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6592,39 +6590,39 @@
         <v>-270000</v>
       </c>
       <c r="C16">
-        <f>C5+C9+C11+C13</f>
+        <f t="shared" ref="C16:K16" si="7">C5+C9+C11+C13</f>
         <v>26363.636363636364</v>
       </c>
       <c r="D16">
-        <f>D5+D9+D11+D13</f>
+        <f t="shared" si="7"/>
         <v>12892.561983471074</v>
       </c>
       <c r="E16">
-        <f>E5+E9+E11+E13</f>
+        <f t="shared" si="7"/>
         <v>31705.484598046565</v>
       </c>
       <c r="F16">
-        <f>F5+F9+F11+F13</f>
+        <f t="shared" si="7"/>
         <v>42346.83423263437</v>
       </c>
       <c r="G16">
-        <f>G5+G9+G11+G13</f>
+        <f t="shared" si="7"/>
         <v>38497.122029667604</v>
       </c>
       <c r="H16">
-        <f>H5+H9+H11+H13</f>
+        <f t="shared" si="7"/>
         <v>34997.383663334185</v>
       </c>
       <c r="I16">
-        <f>I5+I9+I11+I13</f>
+        <f t="shared" si="7"/>
         <v>31815.803330303792</v>
       </c>
       <c r="J16">
-        <f>J5+J9+J11+J13</f>
+        <f t="shared" si="7"/>
         <v>28923.457573003459</v>
       </c>
       <c r="K16">
-        <f>K5+K9+K11+K13</f>
+        <f t="shared" si="7"/>
         <v>26294.052339094054</v>
       </c>
       <c r="L16">
@@ -6645,39 +6643,39 @@
         <v>-243636.36363636365</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:L17" si="7">C17+D16</f>
+        <f t="shared" ref="D17:L17" si="8">C17+D16</f>
         <v>-230743.80165289258</v>
       </c>
       <c r="E17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-199038.317054846</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-156691.48282221163</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-118194.36079254403</v>
       </c>
       <c r="H17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-83196.977129209845</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-51381.173798906049</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-22457.71622590259</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3836.3361131914644</v>
       </c>
       <c r="L17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66294.349000775561</v>
       </c>
       <c r="M17" s="2" t="s">
